--- a/static/data/top2019_clean.xlsx
+++ b/static/data/top2019_clean.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,11 @@
           <t>genre</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>popularity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -523,6 +528,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S2" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -589,6 +597,9 @@
           <t>latin</t>
         </is>
       </c>
+      <c r="S3" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -655,6 +666,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S4" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -721,6 +735,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S5" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -787,6 +804,9 @@
           <t>rap</t>
         </is>
       </c>
+      <c r="S6" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -853,6 +873,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S7" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -919,6 +942,9 @@
           <t>other</t>
         </is>
       </c>
+      <c r="S8" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -985,6 +1011,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S9" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1051,6 +1080,9 @@
           <t>pop rap</t>
         </is>
       </c>
+      <c r="S10" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1117,6 +1149,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S11" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1183,6 +1218,9 @@
           <t>reggaeton</t>
         </is>
       </c>
+      <c r="S12" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1249,6 +1287,9 @@
           <t>other</t>
         </is>
       </c>
+      <c r="S13" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1315,6 +1356,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S14" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1381,6 +1425,9 @@
           <t>reggaeton</t>
         </is>
       </c>
+      <c r="S15" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1447,6 +1494,9 @@
           <t>hip hop</t>
         </is>
       </c>
+      <c r="S16" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1513,6 +1563,9 @@
           <t>pop rap</t>
         </is>
       </c>
+      <c r="S17" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1579,6 +1632,9 @@
           <t>reggaeton</t>
         </is>
       </c>
+      <c r="S18" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1645,6 +1701,9 @@
           <t>rap</t>
         </is>
       </c>
+      <c r="S19" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1711,6 +1770,9 @@
           <t>pop rap</t>
         </is>
       </c>
+      <c r="S20" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1777,6 +1839,9 @@
           <t>pop rap</t>
         </is>
       </c>
+      <c r="S21" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1843,6 +1908,9 @@
           <t>other</t>
         </is>
       </c>
+      <c r="S22" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1909,6 +1977,9 @@
           <t>pop rap</t>
         </is>
       </c>
+      <c r="S23" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1975,6 +2046,9 @@
           <t>reggaeton</t>
         </is>
       </c>
+      <c r="S24" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2041,6 +2115,9 @@
           <t>reggaeton</t>
         </is>
       </c>
+      <c r="S25" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2107,6 +2184,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S26" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2173,6 +2253,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S27" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2239,6 +2322,9 @@
           <t>other</t>
         </is>
       </c>
+      <c r="S28" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2305,6 +2391,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S29" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2371,6 +2460,9 @@
           <t>reggaeton</t>
         </is>
       </c>
+      <c r="S30" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2437,6 +2529,9 @@
           <t>reggaeton</t>
         </is>
       </c>
+      <c r="S31" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2503,6 +2598,9 @@
           <t>tropical house</t>
         </is>
       </c>
+      <c r="S32" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2569,6 +2667,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S33" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2635,6 +2736,9 @@
           <t>reggaeton</t>
         </is>
       </c>
+      <c r="S34" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2701,6 +2805,9 @@
           <t>trap</t>
         </is>
       </c>
+      <c r="S35" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2767,6 +2874,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S36" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2833,6 +2943,9 @@
           <t>edm</t>
         </is>
       </c>
+      <c r="S37" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2899,6 +3012,9 @@
           <t>reggaeton</t>
         </is>
       </c>
+      <c r="S38" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2965,6 +3081,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S39" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3031,6 +3150,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S40" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3097,6 +3219,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S41" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3163,6 +3288,9 @@
           <t>edm</t>
         </is>
       </c>
+      <c r="S42" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3229,6 +3357,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S43" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3295,6 +3426,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S44" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3361,6 +3495,9 @@
           <t>pop</t>
         </is>
       </c>
+      <c r="S45" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3427,6 +3564,9 @@
           <t>other</t>
         </is>
       </c>
+      <c r="S46" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3493,6 +3633,9 @@
           <t>other</t>
         </is>
       </c>
+      <c r="S47" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3559,6 +3702,9 @@
           <t>reggaeton</t>
         </is>
       </c>
+      <c r="S48" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3625,6 +3771,9 @@
           <t>other</t>
         </is>
       </c>
+      <c r="S49" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3691,6 +3840,9 @@
           <t>tropical house</t>
         </is>
       </c>
+      <c r="S50" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3756,6 +3908,9 @@
         <is>
           <t>pop</t>
         </is>
+      </c>
+      <c r="S51" t="n">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/top2019_clean.xlsx
+++ b/static/data/top2019_clean.xlsx
@@ -747,7 +747,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Goodbyes (Feat. Young Thug)</t>
+          <t>Goodbyes (feat. Young Thug)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>It's You</t>
+          <t>Did It Again</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2955,7 +2955,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Otro Trago</t>
+          <t>Otro Trago - Remix</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Talk</t>
+          <t>Talk (feat. Disclosure)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
